--- a/target/test-classes/data/data.xlsx
+++ b/target/test-classes/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="RunManager" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>username</t>
   </si>
@@ -67,18 +67,6 @@
   </si>
   <si>
     <t>chrome</t>
-  </si>
-  <si>
-    <t>ff</t>
-  </si>
-  <si>
-    <t>validateLogin2</t>
-  </si>
-  <si>
-    <t>To check whether the user skip can login</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
 </sst>
 </file>
@@ -411,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -457,23 +445,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -481,10 +452,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -526,57 +497,6 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
         <v>3</v>
       </c>
     </row>
